--- a/用例设计/场景法/QQ安装功能测试/QQ安装功能测试.xlsx
+++ b/用例设计/场景法/QQ安装功能测试/QQ安装功能测试.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -427,160 +427,403 @@
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" t="s">
         <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
